--- a/data/trans_dic/P1434-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Provincia-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01283462467569578</v>
+        <v>0.01015139560621538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03611798702717658</v>
+        <v>0.03386172320272563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03565437306884069</v>
+        <v>0.03505145060113675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0202770146267034</v>
+        <v>0.02083472556010032</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0467975254040923</v>
+        <v>0.04675049951958411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09748475028537346</v>
+        <v>0.0966949356354565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08793973161784291</v>
+        <v>0.08907207666383357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05598752792400463</v>
+        <v>0.05887748867681784</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.0206441554621315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02142953068740339</v>
+        <v>0.02142953068740338</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01636849484596956</v>
+        <v>0.01627028647417321</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02023688090025412</v>
+        <v>0.02066112129183339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01080893941227667</v>
+        <v>0.01005988212149159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0107003856012187</v>
+        <v>0.01094416490865276</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05028335179971794</v>
+        <v>0.04743787179293631</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05778618530575776</v>
+        <v>0.06015237690267847</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0374761480649707</v>
+        <v>0.03668167541413318</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03720561567294249</v>
+        <v>0.03673399879020059</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.05053612053526081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07572122084769214</v>
+        <v>0.07572122084769216</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01116782932670306</v>
+        <v>0.01147014991165227</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006459221029898475</v>
+        <v>0.006339472886077811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02889540956418102</v>
+        <v>0.03028510735786775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.053427556442675</v>
+        <v>0.05583320649327407</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04486997369873421</v>
+        <v>0.04354342479399532</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04049389844975939</v>
+        <v>0.03849016247280685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07808960537334575</v>
+        <v>0.08252558183933542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1022631486080593</v>
+        <v>0.1016230040983828</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.03419026345847212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05999503154368374</v>
+        <v>0.05999503154368375</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004968347572878959</v>
+        <v>0.004874676578671459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009488458002437299</v>
+        <v>0.0114461115042004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01900669247534032</v>
+        <v>0.01977038897442125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03737032801070817</v>
+        <v>0.03926354347329527</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03255644577397416</v>
+        <v>0.03327484177983173</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05196109531270368</v>
+        <v>0.04884449379181084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05516776257726427</v>
+        <v>0.0569644854175227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08715616146494959</v>
+        <v>0.08901163885856207</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.02544889026259048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0447412450352999</v>
+        <v>0.04474124503529989</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004029776341048611</v>
+        <v>0.004215946348575936</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01043927750873384</v>
+        <v>0.01040039961325907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008799902971332388</v>
+        <v>0.008938619332682024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0263531589733149</v>
+        <v>0.02588400575786204</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03731915240693193</v>
+        <v>0.03738628246768089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05815450438169972</v>
+        <v>0.06387049580541108</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05273644097779334</v>
+        <v>0.05248494411756931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07160134642282835</v>
+        <v>0.07088085093563028</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003565002948125003</v>
+        <v>0.003603621556758726</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007617743743917154</v>
+        <v>0.01129024707317016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007867293279034676</v>
+        <v>0.007033646072962671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06890061868044955</v>
+        <v>0.06994240456712897</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03555853669223151</v>
+        <v>0.03293987265097589</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04615112858347781</v>
+        <v>0.04882754497590888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04344058357859702</v>
+        <v>0.04147045721703387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1204579665409205</v>
+        <v>0.1218964712051921</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.03025735578715645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04569027966888815</v>
+        <v>0.04569027966888814</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02130191503316843</v>
+        <v>0.02150281701147447</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02681519496105862</v>
+        <v>0.0262113473949237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01820952993174602</v>
+        <v>0.01949230913422932</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03327431079810808</v>
+        <v>0.03105772218666038</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05041912231278387</v>
+        <v>0.05321310266682434</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05767082270836627</v>
+        <v>0.05927849704806474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04562718537916426</v>
+        <v>0.04737359339488637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06207128644873626</v>
+        <v>0.06136037025554644</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04606715206392636</v>
+        <v>0.04372105017802212</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02984727492562516</v>
+        <v>0.03147121936235932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01890208745360484</v>
+        <v>0.01876977215847142</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05819439993259971</v>
+        <v>0.05779625979759317</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07925385756732137</v>
+        <v>0.07770143914555684</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06175054709284428</v>
+        <v>0.06379202432659405</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04188884798706085</v>
+        <v>0.04277696473577754</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09049248619634191</v>
+        <v>0.08902909319105554</v>
       </c>
     </row>
     <row r="28">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3504</v>
+        <v>2771</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10645</v>
+        <v>9980</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10474</v>
+        <v>10297</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6465</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12776</v>
+        <v>12763</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28732</v>
+        <v>28500</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25833</v>
+        <v>26166</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17851</v>
+        <v>18773</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8071</v>
+        <v>8022</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10230</v>
+        <v>10445</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5432</v>
+        <v>5056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5640</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24793</v>
+        <v>23390</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29212</v>
+        <v>30409</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18835</v>
+        <v>18435</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19612</v>
+        <v>19363</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3561</v>
+        <v>3657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2093</v>
+        <v>2054</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9205</v>
+        <v>9648</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16796</v>
+        <v>17552</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14307</v>
+        <v>13884</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13122</v>
+        <v>12473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24877</v>
+        <v>26290</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32149</v>
+        <v>31947</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1782</v>
+        <v>1748</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3549</v>
+        <v>4281</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7032</v>
+        <v>7314</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13764</v>
+        <v>14462</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11677</v>
+        <v>11935</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19433</v>
+        <v>18267</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20410</v>
+        <v>21075</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32102</v>
+        <v>32785</v>
       </c>
     </row>
     <row r="20">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>819</v>
+        <v>857</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2220</v>
+        <v>2211</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1859</v>
+        <v>1888</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5386</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="23">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7587</v>
+        <v>7601</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12365</v>
+        <v>13580</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11139</v>
+        <v>11086</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14633</v>
+        <v>14485</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2087</v>
+        <v>3093</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2070</v>
+        <v>1851</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18652</v>
+        <v>18934</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9630</v>
+        <v>8920</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12645</v>
+        <v>13378</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11430</v>
+        <v>10912</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>32609</v>
+        <v>32998</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13101</v>
+        <v>13225</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17714</v>
+        <v>17315</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11956</v>
+        <v>12798</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23738</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31009</v>
+        <v>32727</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>38097</v>
+        <v>39159</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29957</v>
+        <v>31104</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44282</v>
+        <v>43775</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>34265</v>
+        <v>32519</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>23254</v>
+        <v>24519</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14717</v>
+        <v>14614</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>46271</v>
+        <v>45955</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>58949</v>
+        <v>57794</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>48110</v>
+        <v>49700</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>32614</v>
+        <v>33305</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>71952</v>
+        <v>70788</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
     </row>
     <row r="40">
